--- a/data/test_distributor.xlsx
+++ b/data/test_distributor.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="58">
   <si>
     <t xml:space="preserve">Step</t>
   </si>
@@ -83,13 +83,13 @@
     <t xml:space="preserve">#firstname</t>
   </si>
   <si>
-    <t xml:space="preserve">周晨飞</t>
-  </si>
-  <si>
     <t xml:space="preserve">输入手机号</t>
   </si>
   <si>
     <t xml:space="preserve">#telephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone</t>
   </si>
   <si>
     <r>
@@ -249,15 +249,6 @@
   </si>
   <si>
     <t xml:space="preserve">未输入姓名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输入qq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上传ID正面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上传ID背面</t>
   </si>
   <si>
     <t xml:space="preserve">#register-form &gt; div &gt; ul &gt; div &gt; li:nth-child(2) &gt; span &gt; em</t>
@@ -391,7 +382,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -581,7 +572,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -674,7 +665,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -691,10 +682,10 @@
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>18817750834</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -901,7 +892,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -935,13 +926,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="1"/>
@@ -951,7 +942,7 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -969,7 +960,7 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -985,7 +976,7 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1003,8 +994,8 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -1013,18 +1004,18 @@
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <v>18817750834</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>53</v>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -1043,7 +1034,7 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1063,7 +1054,7 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1079,12 +1070,12 @@
         <v>9876543210</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>54</v>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>31</v>
@@ -1099,12 +1090,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>55</v>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>31</v>
@@ -1123,7 +1114,7 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1143,7 +1134,7 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1161,7 +1152,7 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1179,7 +1170,7 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1189,17 +1180,17 @@
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1211,14 +1202,14 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>58</v>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1227,7 +1218,7 @@
       <c r="A18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1245,7 +1236,7 @@
       <c r="A19" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1261,7 +1252,7 @@
       <c r="A20" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1274,15 +1265,15 @@
         <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>17</v>
@@ -1291,16 +1282,16 @@
         <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>53</v>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>17</v>
@@ -1319,7 +1310,7 @@
       <c r="A23" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1339,7 +1330,7 @@
       <c r="A24" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1355,12 +1346,12 @@
         <v>9876543210</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>54</v>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>31</v>
@@ -1375,12 +1366,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>55</v>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>31</v>
@@ -1399,7 +1390,7 @@
       <c r="A27" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1419,7 +1410,7 @@
       <c r="A28" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1437,7 +1428,7 @@
       <c r="A29" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1455,7 +1446,7 @@
       <c r="A30" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1465,17 +1456,17 @@
         <v>18</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
